--- a/download/ExportarGNS.xlsx
+++ b/download/ExportarGNS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Cliente</t>
   </si>
@@ -41,85 +41,46 @@
     <t>Obs</t>
   </si>
   <si>
-    <t>ALZIRA PINTO DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>2-1089701028</t>
+    <t>ALBERTO GOMES MATOS</t>
+  </si>
+  <si>
+    <t>2-1096365268</t>
   </si>
   <si>
     <t>Visita de revisão preventiva anual</t>
   </si>
   <si>
-    <t>RUA GUIMARAES ROSA 143 / 1808 - BARRA DA TIJUCA - RIO DE JANEIRO</t>
-  </si>
-  <si>
-    <t>22/01/2019</t>
-  </si>
-  <si>
-    <t>ADHEMAR DA SILVA FARIAS NETO</t>
+    <t>RUA PAULA NEI 317 B59 / 302 - REALENGO - RIO DE JANEIRO</t>
+  </si>
+  <si>
+    <t>23/01/2019</t>
+  </si>
+  <si>
+    <t>FELIPE LUIZ FERREIRA DA SILVA LOUZADA</t>
   </si>
   <si>
     <t>Manhã</t>
   </si>
   <si>
-    <t>Quem agendou:ALZIRA PINTO DE OLIVEIRA  Quem ira receber:ALZIRA PINTO DE OLIVEIRA  tel de contato ou zap:999226918  ponto de referencia: dentro do condominio novo neblon   preferencia de turno: manha</t>
-  </si>
-  <si>
-    <t>BRUNO PAULO DE LIMA</t>
-  </si>
-  <si>
-    <t>2-1092794434</t>
+    <t>QUEM IRÁ ATENDER :alberto / lucimar PERIODO:manhã  PONTO DE REF: a entrada na rua guanabara enfrente a pracinha tel: (21)986016392</t>
+  </si>
+  <si>
+    <t>ANNA BEATRIZ FIGUEIRA DA CUNHA</t>
+  </si>
+  <si>
+    <t>2-1096722754</t>
   </si>
   <si>
     <t>Assistência domiciliar gás</t>
   </si>
   <si>
-    <t>ETR DOS BANDEIRANTES 8427 B04 / 402 - JACAREPAGUA - RIO DE JANEIRO</t>
-  </si>
-  <si>
-    <t>Senhor BRUNO solicita uma adg para fogão atlas quatro bocas , pont ref ; do lado shopping mato band tel ; 21983724280 . os ; 4432 .</t>
-  </si>
-  <si>
-    <t>MARIA MARGARIDA VIANNA BARROS</t>
-  </si>
-  <si>
-    <t>2-1096265422</t>
-  </si>
-  <si>
-    <t>RUA DA GAZELA 623 B28 / 401 - REALENGO - RIO DE JANEIRO</t>
-  </si>
-  <si>
-    <t>ADELSON LIRA DIAS</t>
-  </si>
-  <si>
-    <t>ponto de ref: perto do cruzamento horario livre sra maria vai receber o tec</t>
-  </si>
-  <si>
-    <t>HENRIQUE COELHO DE SA</t>
-  </si>
-  <si>
-    <t>2-1096359298</t>
-  </si>
-  <si>
-    <t>RUA PAULO PRADO 63 B03 / 201 - OSWALDO CRUZ - RIO DE JANEIRO</t>
-  </si>
-  <si>
-    <t>atras da clinica camin / residencial arte maior adg para fogão tel (21) 9133-0949 cod 9296</t>
-  </si>
-  <si>
-    <t>ANTONIO CESAR DA SILVA</t>
-  </si>
-  <si>
-    <t>2-1096815467</t>
-  </si>
-  <si>
-    <t>Adequações de ambiente</t>
-  </si>
-  <si>
-    <t>RUA DO ESPADARTE 138 B16 / 505 - REALENGO - RIO DE JANEIRO</t>
-  </si>
-  <si>
-    <t>Sr. Sandra esposa do titular solicita ADG FG:Não sabe Tell: 021 970089392 Ponto ref: Prox Colégio</t>
+    <t>AVN GENERAL AZEREDO 95 B01 / 405 - REALENGO - RIO DE JANEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAKSON COSME CESCON FERREIRA </t>
+  </si>
+  <si>
+    <t>Sr. Anna titular solicita ADG FG:Consu 4 bocas AQC:Lorenzeti LZ 750 BT Ponto ref: Prox Ligth Tell: 021995651587</t>
   </si>
 </sst>
 </file>
@@ -458,7 +419,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,91 +496,13 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
